--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lamc2-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lamc2-Itga3.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Lamc2</t>
+  </si>
+  <si>
+    <t>Itga3</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Lamc2</t>
-  </si>
-  <si>
-    <t>Itga3</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.483258</v>
+        <v>0.9155336666666667</v>
       </c>
       <c r="H2">
-        <v>1.449774</v>
+        <v>2.746601</v>
       </c>
       <c r="I2">
-        <v>0.104155612626562</v>
+        <v>0.1890240037548773</v>
       </c>
       <c r="J2">
-        <v>0.1095883597507648</v>
+        <v>0.1951995261655112</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.451657</v>
+        <v>12.431794</v>
       </c>
       <c r="N2">
-        <v>34.35497100000001</v>
+        <v>37.295382</v>
       </c>
       <c r="O2">
-        <v>0.6845114669615145</v>
+        <v>0.6267040910788743</v>
       </c>
       <c r="P2">
-        <v>0.7523533426569311</v>
+        <v>0.7075740515758999</v>
       </c>
       <c r="Q2">
-        <v>5.534104858506002</v>
+        <v>11.38172594406467</v>
       </c>
       <c r="R2">
-        <v>49.80694372655401</v>
+        <v>102.435533496582</v>
       </c>
       <c r="S2">
-        <v>0.07129571119128324</v>
+        <v>0.1184621164652901</v>
       </c>
       <c r="T2">
-        <v>0.08244916877477818</v>
+        <v>0.1381181195946266</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.483258</v>
+        <v>0.9155336666666667</v>
       </c>
       <c r="H3">
-        <v>1.449774</v>
+        <v>2.746601</v>
       </c>
       <c r="I3">
-        <v>0.104155612626562</v>
+        <v>0.1890240037548773</v>
       </c>
       <c r="J3">
-        <v>0.1095883597507648</v>
+        <v>0.1951995261655112</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.572043</v>
       </c>
       <c r="O3">
-        <v>0.03132243831777881</v>
+        <v>0.0264162940991436</v>
       </c>
       <c r="P3">
-        <v>0.03442680262633403</v>
+        <v>0.0298250554119953</v>
       </c>
       <c r="Q3">
-        <v>0.2532341186979999</v>
+        <v>0.4797527639825555</v>
       </c>
       <c r="R3">
-        <v>2.279107068282</v>
+        <v>4.317774875843</v>
       </c>
       <c r="S3">
-        <v>0.003262407751945954</v>
+        <v>0.004993313674986462</v>
       </c>
       <c r="T3">
-        <v>0.003772776831283268</v>
+        <v>0.005821836684281598</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.483258</v>
+        <v>0.9155336666666667</v>
       </c>
       <c r="H4">
-        <v>1.449774</v>
+        <v>2.746601</v>
       </c>
       <c r="I4">
-        <v>0.104155612626562</v>
+        <v>0.1890240037548773</v>
       </c>
       <c r="J4">
-        <v>0.1095883597507648</v>
+        <v>0.1951995261655112</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.123396</v>
+        <v>0.03915333333333333</v>
       </c>
       <c r="N4">
-        <v>0.370188</v>
+        <v>0.11746</v>
       </c>
       <c r="O4">
-        <v>0.007375873812600485</v>
+        <v>0.001973774193762771</v>
       </c>
       <c r="P4">
-        <v>0.008106896064953278</v>
+        <v>0.002228470219130754</v>
       </c>
       <c r="Q4">
-        <v>0.05963210416800001</v>
+        <v>0.03584619482888889</v>
       </c>
       <c r="R4">
-        <v>0.5366889375120001</v>
+        <v>0.32261575346</v>
       </c>
       <c r="S4">
-        <v>0.0007682386556076194</v>
+        <v>0.0003730907006130938</v>
       </c>
       <c r="T4">
-        <v>0.0008884214424281592</v>
+        <v>0.0004349963308482761</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.483258</v>
+        <v>0.9155336666666667</v>
       </c>
       <c r="H5">
-        <v>1.449774</v>
+        <v>2.746601</v>
       </c>
       <c r="I5">
-        <v>0.104155612626562</v>
+        <v>0.1890240037548773</v>
       </c>
       <c r="J5">
-        <v>0.1095883597507648</v>
+        <v>0.1951995261655112</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.525690500000001</v>
+        <v>6.8015495</v>
       </c>
       <c r="N5">
-        <v>9.051381000000001</v>
+        <v>13.603099</v>
       </c>
       <c r="O5">
-        <v>0.2705186719414308</v>
+        <v>0.3428756056708687</v>
       </c>
       <c r="P5">
-        <v>0.1982198369782188</v>
+        <v>0.2580802061075034</v>
       </c>
       <c r="Q5">
-        <v>2.187076139649</v>
+        <v>6.227047552749833</v>
       </c>
       <c r="R5">
-        <v>13.122456837894</v>
+        <v>37.362285316499</v>
       </c>
       <c r="S5">
-        <v>0.02817603800298369</v>
+        <v>0.06481171977378609</v>
       </c>
       <c r="T5">
-        <v>0.02172258680450699</v>
+        <v>0.05037713394488212</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.483258</v>
+        <v>0.9155336666666667</v>
       </c>
       <c r="H6">
-        <v>1.449774</v>
+        <v>2.746601</v>
       </c>
       <c r="I6">
-        <v>0.104155612626562</v>
+        <v>0.1890240037548773</v>
       </c>
       <c r="J6">
-        <v>0.1095883597507648</v>
+        <v>0.1951995261655112</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.104921</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N6">
-        <v>0.314763</v>
+        <v>0.12082</v>
       </c>
       <c r="O6">
-        <v>0.00627154896667522</v>
+        <v>0.002030234957350741</v>
       </c>
       <c r="P6">
-        <v>0.006893121673562861</v>
+        <v>0.002292216685470609</v>
       </c>
       <c r="Q6">
-        <v>0.050703912618</v>
+        <v>0.03687159253555556</v>
       </c>
       <c r="R6">
-        <v>0.4563352135620001</v>
+        <v>0.33184433282</v>
       </c>
       <c r="S6">
-        <v>0.0006532170247415396</v>
+        <v>0.0003837631402015496</v>
       </c>
       <c r="T6">
-        <v>0.0007554058977682007</v>
+        <v>0.0004474396108725415</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>10.398277</v>
       </c>
       <c r="I7">
-        <v>0.7470398222037985</v>
+        <v>0.7156204889943075</v>
       </c>
       <c r="J7">
-        <v>0.7860053502574217</v>
+        <v>0.7390002200311341</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.451657</v>
+        <v>12.431794</v>
       </c>
       <c r="N7">
-        <v>34.35497100000001</v>
+        <v>37.295382</v>
       </c>
       <c r="O7">
-        <v>0.6845114669615145</v>
+        <v>0.6267040910788743</v>
       </c>
       <c r="P7">
-        <v>0.7523533426569311</v>
+        <v>0.7075740515758999</v>
       </c>
       <c r="Q7">
-        <v>39.69250053166301</v>
+        <v>43.08974587297934</v>
       </c>
       <c r="R7">
-        <v>357.2325047849671</v>
+        <v>387.807712856814</v>
       </c>
       <c r="S7">
-        <v>0.5113573245753911</v>
+        <v>0.448482288112597</v>
       </c>
       <c r="T7">
-        <v>0.5913537526124031</v>
+        <v>0.5228973798029111</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>10.398277</v>
       </c>
       <c r="I8">
-        <v>0.7470398222037985</v>
+        <v>0.7156204889943075</v>
       </c>
       <c r="J8">
-        <v>0.7860053502574217</v>
+        <v>0.7390002200311341</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.572043</v>
       </c>
       <c r="O8">
-        <v>0.03132243831777881</v>
+        <v>0.0264162940991436</v>
       </c>
       <c r="P8">
-        <v>0.03442680262633403</v>
+        <v>0.0298250554119953</v>
       </c>
       <c r="Q8">
         <v>1.816282063323444</v>
@@ -948,10 +948,10 @@
         <v>16.346538569911</v>
       </c>
       <c r="S8">
-        <v>0.02339910875190293</v>
+        <v>0.01890404130064658</v>
       </c>
       <c r="T8">
-        <v>0.02705965105655481</v>
+        <v>0.02204072251190529</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>10.398277</v>
       </c>
       <c r="I9">
-        <v>0.7470398222037985</v>
+        <v>0.7156204889943075</v>
       </c>
       <c r="J9">
-        <v>0.7860053502574217</v>
+        <v>0.7390002200311341</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.123396</v>
+        <v>0.03915333333333333</v>
       </c>
       <c r="N9">
-        <v>0.370188</v>
+        <v>0.11746</v>
       </c>
       <c r="O9">
-        <v>0.007375873812600485</v>
+        <v>0.001973774193762771</v>
       </c>
       <c r="P9">
-        <v>0.008106896064953278</v>
+        <v>0.002228470219130754</v>
       </c>
       <c r="Q9">
-        <v>0.427701929564</v>
+        <v>0.1357090684911111</v>
       </c>
       <c r="R9">
-        <v>3.849317366076</v>
+        <v>1.22138161642</v>
       </c>
       <c r="S9">
-        <v>0.00551007146156272</v>
+        <v>0.001412473253704859</v>
       </c>
       <c r="T9">
-        <v>0.006372063681034114</v>
+        <v>0.001646839982270457</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>10.398277</v>
       </c>
       <c r="I10">
-        <v>0.7470398222037985</v>
+        <v>0.7156204889943075</v>
       </c>
       <c r="J10">
-        <v>0.7860053502574217</v>
+        <v>0.7390002200311341</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.525690500000001</v>
+        <v>6.8015495</v>
       </c>
       <c r="N10">
-        <v>9.051381000000001</v>
+        <v>13.603099</v>
       </c>
       <c r="O10">
-        <v>0.2705186719414308</v>
+        <v>0.3428756056708687</v>
       </c>
       <c r="P10">
-        <v>0.1982198369782188</v>
+        <v>0.2580802061075034</v>
       </c>
       <c r="Q10">
-        <v>15.6864611450895</v>
+        <v>23.57479857673717</v>
       </c>
       <c r="R10">
-        <v>94.11876687053702</v>
+        <v>141.448791460423</v>
       </c>
       <c r="S10">
-        <v>0.2020882205899342</v>
+        <v>0.2453688085944064</v>
       </c>
       <c r="T10">
-        <v>0.1558018523920339</v>
+        <v>0.1907213290991254</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>10.398277</v>
       </c>
       <c r="I11">
-        <v>0.7470398222037985</v>
+        <v>0.7156204889943075</v>
       </c>
       <c r="J11">
-        <v>0.7860053502574217</v>
+        <v>0.7390002200311341</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.104921</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N11">
-        <v>0.314763</v>
+        <v>0.12082</v>
       </c>
       <c r="O11">
-        <v>0.00627154896667522</v>
+        <v>0.002030234957350741</v>
       </c>
       <c r="P11">
-        <v>0.006893121673562861</v>
+        <v>0.002292216685470609</v>
       </c>
       <c r="Q11">
-        <v>0.3636658737056667</v>
+        <v>0.1395910919044445</v>
       </c>
       <c r="R11">
-        <v>3.272992863351</v>
+        <v>1.25631982714</v>
       </c>
       <c r="S11">
-        <v>0.004685096825007473</v>
+        <v>0.001452877732952674</v>
       </c>
       <c r="T11">
-        <v>0.005418030515395801</v>
+        <v>0.001693948634921817</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,19 +1157,19 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.6900375000000001</v>
+        <v>0.002153333333333333</v>
       </c>
       <c r="H12">
-        <v>1.380075</v>
+        <v>0.00646</v>
       </c>
       <c r="I12">
-        <v>0.1487223771728586</v>
+        <v>0.0004445840747369229</v>
       </c>
       <c r="J12">
-        <v>0.10431981507672</v>
+        <v>0.0004591088909634862</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.451657</v>
+        <v>12.431794</v>
       </c>
       <c r="N12">
-        <v>34.35497100000001</v>
+        <v>37.295382</v>
       </c>
       <c r="O12">
-        <v>0.6845114669615145</v>
+        <v>0.6267040910788743</v>
       </c>
       <c r="P12">
-        <v>0.7523533426569311</v>
+        <v>0.7075740515758999</v>
       </c>
       <c r="Q12">
-        <v>7.902072767137502</v>
+        <v>0.02676979641333334</v>
       </c>
       <c r="R12">
-        <v>47.41243660282501</v>
+        <v>0.24092816772</v>
       </c>
       <c r="S12">
-        <v>0.1018021725685971</v>
+        <v>0.0002786226584661456</v>
       </c>
       <c r="T12">
-        <v>0.07848536157832324</v>
+        <v>0.000324853538093552</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,19 +1219,19 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.6900375000000001</v>
+        <v>0.002153333333333333</v>
       </c>
       <c r="H13">
-        <v>1.380075</v>
+        <v>0.00646</v>
       </c>
       <c r="I13">
-        <v>0.1487223771728586</v>
+        <v>0.0004445840747369229</v>
       </c>
       <c r="J13">
-        <v>0.10431981507672</v>
+        <v>0.0004591088909634862</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.572043</v>
       </c>
       <c r="O13">
-        <v>0.03132243831777881</v>
+        <v>0.0264162940991436</v>
       </c>
       <c r="P13">
-        <v>0.03442680262633403</v>
+        <v>0.0298250554119953</v>
       </c>
       <c r="Q13">
-        <v>0.3615895405375</v>
+        <v>0.001128377531111111</v>
       </c>
       <c r="R13">
-        <v>2.169537243225</v>
+        <v>0.01015539778</v>
       </c>
       <c r="S13">
-        <v>0.0046583474854703</v>
+        <v>1.174426367004619E-05</v>
       </c>
       <c r="T13">
-        <v>0.003591397683661906</v>
+        <v>1.369294811312569E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,25 +1275,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.6900375000000001</v>
+        <v>0.002153333333333333</v>
       </c>
       <c r="H14">
-        <v>1.380075</v>
+        <v>0.00646</v>
       </c>
       <c r="I14">
-        <v>0.1487223771728586</v>
+        <v>0.0004445840747369229</v>
       </c>
       <c r="J14">
-        <v>0.10431981507672</v>
+        <v>0.0004591088909634862</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.123396</v>
+        <v>0.03915333333333333</v>
       </c>
       <c r="N14">
-        <v>0.370188</v>
+        <v>0.11746</v>
       </c>
       <c r="O14">
-        <v>0.007375873812600485</v>
+        <v>0.001973774193762771</v>
       </c>
       <c r="P14">
-        <v>0.008106896064953278</v>
+        <v>0.002228470219130754</v>
       </c>
       <c r="Q14">
-        <v>0.08514786735000002</v>
+        <v>8.431017777777778E-05</v>
       </c>
       <c r="R14">
-        <v>0.5108872041000001</v>
+        <v>0.0007587916000000001</v>
       </c>
       <c r="S14">
-        <v>0.00109695748713698</v>
+        <v>8.775085736736374E-07</v>
       </c>
       <c r="T14">
-        <v>0.0008457098983421154</v>
+        <v>1.023110490850278E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.6900375000000001</v>
+        <v>0.002153333333333333</v>
       </c>
       <c r="H15">
-        <v>1.380075</v>
+        <v>0.00646</v>
       </c>
       <c r="I15">
-        <v>0.1487223771728586</v>
+        <v>0.0004445840747369229</v>
       </c>
       <c r="J15">
-        <v>0.10431981507672</v>
+        <v>0.0004591088909634862</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.525690500000001</v>
+        <v>6.8015495</v>
       </c>
       <c r="N15">
-        <v>9.051381000000001</v>
+        <v>13.603099</v>
       </c>
       <c r="O15">
-        <v>0.2705186719414308</v>
+        <v>0.3428756056708687</v>
       </c>
       <c r="P15">
-        <v>0.1982198369782188</v>
+        <v>0.2580802061075034</v>
       </c>
       <c r="Q15">
-        <v>3.122896158393751</v>
+        <v>0.01464600325666667</v>
       </c>
       <c r="R15">
-        <v>12.491584633575</v>
+        <v>0.08787601954</v>
       </c>
       <c r="S15">
-        <v>0.04023217996077428</v>
+        <v>0.0001524370338970452</v>
       </c>
       <c r="T15">
-        <v>0.02067825673810538</v>
+        <v>0.0001184869172056438</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,55 +1399,55 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.6900375000000001</v>
+        <v>0.002153333333333333</v>
       </c>
       <c r="H16">
-        <v>1.380075</v>
+        <v>0.00646</v>
       </c>
       <c r="I16">
-        <v>0.1487223771728586</v>
+        <v>0.0004445840747369229</v>
       </c>
       <c r="J16">
-        <v>0.10431981507672</v>
+        <v>0.0004591088909634862</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.104921</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N16">
-        <v>0.314763</v>
+        <v>0.12082</v>
       </c>
       <c r="O16">
-        <v>0.00627154896667522</v>
+        <v>0.002030234957350741</v>
       </c>
       <c r="P16">
-        <v>0.006893121673562861</v>
+        <v>0.002292216685470609</v>
       </c>
       <c r="Q16">
-        <v>0.07239942453750001</v>
+        <v>8.672191111111112E-05</v>
       </c>
       <c r="R16">
-        <v>0.4343965472250001</v>
+        <v>0.0007804972000000001</v>
       </c>
       <c r="S16">
-        <v>0.0009327196708799239</v>
+        <v>9.026101300123353E-07</v>
       </c>
       <c r="T16">
-        <v>0.0007190891782874086</v>
+        <v>1.05237706031441E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0003813333333333334</v>
+        <v>0.459699</v>
       </c>
       <c r="H17">
-        <v>0.001144</v>
+        <v>0.9193979999999999</v>
       </c>
       <c r="I17">
-        <v>8.218799678073065E-05</v>
+        <v>0.09491092317607834</v>
       </c>
       <c r="J17">
-        <v>8.64749150935766E-05</v>
+        <v>0.06534114491239122</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.451657</v>
+        <v>12.431794</v>
       </c>
       <c r="N17">
-        <v>34.35497100000001</v>
+        <v>37.295382</v>
       </c>
       <c r="O17">
-        <v>0.6845114669615145</v>
+        <v>0.6267040910788743</v>
       </c>
       <c r="P17">
-        <v>0.7523533426569311</v>
+        <v>0.7075740515758999</v>
       </c>
       <c r="Q17">
-        <v>0.004366898536000001</v>
+        <v>5.714883270006</v>
       </c>
       <c r="R17">
-        <v>0.03930208682400001</v>
+        <v>34.289299620036</v>
       </c>
       <c r="S17">
-        <v>5.625862624300617E-05</v>
+        <v>0.05948106384252104</v>
       </c>
       <c r="T17">
-        <v>6.505969142662666E-05</v>
+        <v>0.04623369864026865</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.0003813333333333334</v>
+        <v>0.459699</v>
       </c>
       <c r="H18">
-        <v>0.001144</v>
+        <v>0.9193979999999999</v>
       </c>
       <c r="I18">
-        <v>8.218799678073065E-05</v>
+        <v>0.09491092317607834</v>
       </c>
       <c r="J18">
-        <v>8.64749150935766E-05</v>
+        <v>0.06534114491239122</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>1.572043</v>
       </c>
       <c r="O18">
-        <v>0.03132243831777881</v>
+        <v>0.0264162940991436</v>
       </c>
       <c r="P18">
-        <v>0.03442680262633403</v>
+        <v>0.0298250554119953</v>
       </c>
       <c r="Q18">
-        <v>0.0001998241324444444</v>
+        <v>0.2408888650189999</v>
       </c>
       <c r="R18">
-        <v>0.001798417192</v>
+        <v>1.445333190114</v>
       </c>
       <c r="S18">
-        <v>2.574328459626239E-06</v>
+        <v>0.00250719485984051</v>
       </c>
       <c r="T18">
-        <v>2.977054834055555E-06</v>
+        <v>0.001948803267695283</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,25 +1585,25 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0003813333333333334</v>
+        <v>0.459699</v>
       </c>
       <c r="H19">
-        <v>0.001144</v>
+        <v>0.9193979999999999</v>
       </c>
       <c r="I19">
-        <v>8.218799678073065E-05</v>
+        <v>0.09491092317607834</v>
       </c>
       <c r="J19">
-        <v>8.64749150935766E-05</v>
+        <v>0.06534114491239122</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1612,28 +1612,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.123396</v>
+        <v>0.03915333333333333</v>
       </c>
       <c r="N19">
-        <v>0.370188</v>
+        <v>0.11746</v>
       </c>
       <c r="O19">
-        <v>0.007375873812600485</v>
+        <v>0.001973774193762771</v>
       </c>
       <c r="P19">
-        <v>0.008106896064953278</v>
+        <v>0.002228470219130754</v>
       </c>
       <c r="Q19">
-        <v>4.7055008E-05</v>
+        <v>0.01799874818</v>
       </c>
       <c r="R19">
-        <v>0.0004234950720000001</v>
+        <v>0.10799248908</v>
       </c>
       <c r="S19">
-        <v>6.062082931650841E-07</v>
+        <v>0.0001873327308711443</v>
       </c>
       <c r="T19">
-        <v>7.010431488892849E-07</v>
+        <v>0.0001456107955211708</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,25 +1647,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0003813333333333334</v>
+        <v>0.459699</v>
       </c>
       <c r="H20">
-        <v>0.001144</v>
+        <v>0.9193979999999999</v>
       </c>
       <c r="I20">
-        <v>8.218799678073065E-05</v>
+        <v>0.09491092317607834</v>
       </c>
       <c r="J20">
-        <v>8.64749150935766E-05</v>
+        <v>0.06534114491239122</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.525690500000001</v>
+        <v>6.8015495</v>
       </c>
       <c r="N20">
-        <v>9.051381000000001</v>
+        <v>13.603099</v>
       </c>
       <c r="O20">
-        <v>0.2705186719414308</v>
+        <v>0.3428756056708687</v>
       </c>
       <c r="P20">
-        <v>0.1982198369782188</v>
+        <v>0.2580802061075034</v>
       </c>
       <c r="Q20">
-        <v>0.001725796644</v>
+        <v>3.1266655036005</v>
       </c>
       <c r="R20">
-        <v>0.010354779864</v>
+        <v>12.506662014402</v>
       </c>
       <c r="S20">
-        <v>2.223338773864984E-05</v>
+        <v>0.03254264026877915</v>
       </c>
       <c r="T20">
-        <v>1.714104357255407E-05</v>
+        <v>0.01686325614629017</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,55 +1709,55 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.459699</v>
+      </c>
+      <c r="H21">
+        <v>0.9193979999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.09491092317607834</v>
+      </c>
+      <c r="J21">
+        <v>0.06534114491239122</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G21">
-        <v>0.0003813333333333334</v>
-      </c>
-      <c r="H21">
-        <v>0.001144</v>
-      </c>
-      <c r="I21">
-        <v>8.218799678073065E-05</v>
-      </c>
-      <c r="J21">
-        <v>8.64749150935766E-05</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M21">
-        <v>0.104921</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N21">
-        <v>0.314763</v>
+        <v>0.12082</v>
       </c>
       <c r="O21">
-        <v>0.00627154896667522</v>
+        <v>0.002030234957350741</v>
       </c>
       <c r="P21">
-        <v>0.006893121673562861</v>
+        <v>0.002292216685470609</v>
       </c>
       <c r="Q21">
-        <v>4.000987466666667E-05</v>
+        <v>0.01851361106</v>
       </c>
       <c r="R21">
-        <v>0.000360088872</v>
+        <v>0.11108166636</v>
       </c>
       <c r="S21">
-        <v>5.154460462832976E-07</v>
+        <v>0.0001926914740665048</v>
       </c>
       <c r="T21">
-        <v>5.96082111451041E-07</v>
+        <v>0.0001497760626159362</v>
       </c>
     </row>
   </sheetData>
